--- a/xlsx/計劃經濟_intext.xlsx
+++ b/xlsx/計劃經濟_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>計劃經濟</t>
   </si>
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_美國_計劃經濟</t>
+    <t>体育运动_体育运动_苏联_計劃經濟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E4%BA%BA%E5%9D%87%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8_(%E8%B4%AD%E4%B9%B0%E5%8A%9B%E5%B9%B3%E4%BB%B7)</t>
@@ -576,6 +576,12 @@
   </si>
   <si>
     <t>国家资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%97%E5%B8%83%E6%8B%89%E6%B4%A5%E6%96%AF%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>普列布拉津斯基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E4%BA%92%E4%BC%9A</t>
@@ -1236,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,7 +4167,7 @@
         <v>188</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4190,7 +4196,7 @@
         <v>190</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -4219,7 +4225,7 @@
         <v>192</v>
       </c>
       <c r="G103" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
@@ -4248,7 +4254,7 @@
         <v>194</v>
       </c>
       <c r="G104" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
@@ -4277,7 +4283,7 @@
         <v>196</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -4335,7 +4341,7 @@
         <v>200</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -4422,7 +4428,7 @@
         <v>206</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -4451,7 +4457,7 @@
         <v>208</v>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -4480,7 +4486,7 @@
         <v>210</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -4509,7 +4515,7 @@
         <v>212</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -4567,7 +4573,7 @@
         <v>216</v>
       </c>
       <c r="G115" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -4596,7 +4602,7 @@
         <v>218</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -4683,7 +4689,7 @@
         <v>224</v>
       </c>
       <c r="G119" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -4712,7 +4718,7 @@
         <v>226</v>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -4741,7 +4747,7 @@
         <v>228</v>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -4764,13 +4770,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -4793,13 +4799,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -4828,7 +4834,7 @@
         <v>232</v>
       </c>
       <c r="G124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -4857,7 +4863,7 @@
         <v>234</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -4886,7 +4892,7 @@
         <v>236</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -4915,7 +4921,7 @@
         <v>238</v>
       </c>
       <c r="G127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -4944,7 +4950,7 @@
         <v>240</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -5292,7 +5298,7 @@
         <v>264</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -5315,13 +5321,13 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -5344,13 +5350,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="F142" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -5373,13 +5379,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>93</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -5605,10 +5611,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>221</v>
+        <v>281</v>
       </c>
       <c r="F151" t="s">
-        <v>222</v>
+        <v>282</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5634,10 +5640,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="F152" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5663,10 +5669,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="F153" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5698,7 +5704,7 @@
         <v>284</v>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -5727,7 +5733,7 @@
         <v>286</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -5756,7 +5762,7 @@
         <v>288</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -5791,6 +5797,35 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" t="n">
+        <v>157</v>
+      </c>
+      <c r="E158" t="s">
+        <v>291</v>
+      </c>
+      <c r="F158" t="s">
+        <v>292</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" t="n">
         <v>3</v>
       </c>
     </row>
